--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="148">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,7 +264,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>OffreOperationnelle.contact</t>
+    <t>contact</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -318,9 +318,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>nom</t>
-  </si>
-  <si>
     <t>Extension.extension:name.id</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
 </t>
   </si>
   <si>
+    <t>nom</t>
+  </si>
+  <si>
     <t>Extension.extension:ror-function-contact</t>
   </si>
   <si>
@@ -394,16 +394,10 @@
     <t>Extension créée dans le cadre du ROR qui indique un titre, une position ou une fonction de la personne assurant le contact au sein de l'organisation (directeur, secrétaire, etc.).</t>
   </si>
   <si>
-    <t>fonctionContact : JDV-J220-FonctionContact-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:purposeContact</t>
   </si>
   <si>
     <t>purposeContact</t>
-  </si>
-  <si>
-    <t>natureContact : JDV-J221-NatureContact-ROR</t>
   </si>
   <si>
     <t>Extension.extension:purposeContact.id</t>
@@ -428,6 +422,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J221-NatureContact-ROR/FHIR/JDV-J221-NatureContact-ROR</t>
   </si>
   <si>
+    <t>natureContact</t>
+  </si>
+  <si>
     <t>Extension.extension:description</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>Extension créée dans le cadre du ROR pour définir le niveau de restriction de l'accès aux attributs de la classe Contact.</t>
   </si>
   <si>
-    <t>niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:ror-healthcareservice-contact-telecom</t>
   </si>
   <si>
@@ -473,105 +467,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour les télécommunications du contact.</t>
-  </si>
-  <si>
-    <t>telecom</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t>ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
-  </si>
-  <si>
-    <t>canal : JDV-J225-CanalCommunication-ROR</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:ror-telecom-usage</t>
-  </si>
-  <si>
-    <t>ror-telecom-usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication</t>
-  </si>
-  <si>
-    <t>utilisation</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:ror-telecom-confidentiality-level</t>
-  </si>
-  <si>
-    <t>ror-telecom-confidentiality-level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:telecomAddress</t>
-  </si>
-  <si>
-    <t>telecomAddress</t>
-  </si>
-  <si>
-    <t>adresseTelecom</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:telecomAddress.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:telecomAddress.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:telecomAddress.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.extension:telecomAddress.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.url</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-contact-telecom</t>
-  </si>
-  <si>
-    <t>Extension.extension:ror-healthcareservice-contact-telecom.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -886,7 +781,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -895,8 +790,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="99.08984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="36.30078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1473,15 +1368,15 @@
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1584,10 +1479,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1690,10 +1585,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1716,16 +1611,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1775,22 +1670,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -1798,10 +1693,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1824,13 +1719,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1881,7 +1776,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1893,13 +1788,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2007,18 +1902,18 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -2115,15 +2010,15 @@
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2226,10 +2121,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2332,10 +2227,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2358,16 +2253,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2375,7 +2270,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>76</v>
@@ -2417,22 +2312,22 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -2440,10 +2335,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2466,13 +2361,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2499,11 +2394,11 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -2521,7 +2416,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2533,24 +2428,24 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
@@ -2647,15 +2542,15 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2758,10 +2653,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2864,10 +2759,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2890,16 +2785,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2907,7 +2802,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>76</v>
@@ -2949,22 +2844,22 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -2972,10 +2867,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3001,10 +2896,10 @@
         <v>85</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3055,7 +2950,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3067,24 +2962,24 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
@@ -3106,13 +3001,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3181,18 +3076,18 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
@@ -3214,13 +3109,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3289,15 +3184,15 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3305,7 +3200,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>84</v>
@@ -3320,22 +3215,24 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>76</v>
@@ -3377,10 +3274,10 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>84</v>
@@ -3392,7 +3289,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3400,10 +3297,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3411,10 +3308,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3426,13 +3323,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3471,1322 +3368,36 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
